--- a/Sensitivity Analysis.xlsx
+++ b/Sensitivity Analysis.xlsx
@@ -5,23 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Se7eN.CO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Se7eN.CO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="14380" windowHeight="9770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.0" hidden="1">Sheet1!$B$110:$B$119</definedName>
-    <definedName name="_xlchart.1" hidden="1">Sheet1!$C$110:$C$119</definedName>
-    <definedName name="_xlchart.2" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.3" hidden="1">Sheet1!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.4" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.5" hidden="1">Sheet1!$C$2:$C$11</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -341,10 +333,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR" sz="1000">
-                    <a:cs typeface="B Mitra" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
-                  </a:rPr>
-                  <a:t>قیمت هر تجهیز تعمیر در مرکز تعمیر </a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Price of each repair equipment at the repair center</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1000">
                   <a:cs typeface="B Mitra" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
@@ -356,8 +346,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39225792654086505"/>
-              <c:y val="0.85318670024447874"/>
+              <c:x val="0.23451038575667657"/>
+              <c:y val="0.85318654612617872"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -474,14 +464,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR" sz="1000">
+                  <a:rPr lang="en-US" sz="1000">
                     <a:cs typeface="B Mitra" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
                   </a:rPr>
-                  <a:t>تابع هدف </a:t>
+                  <a:t>Objective function</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1000">
-                  <a:cs typeface="B Mitra" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -623,10 +610,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13453316610261459"/>
-          <c:y val="0.12064382235009433"/>
-          <c:w val="0.85219685039370074"/>
-          <c:h val="0.67688147640990526"/>
+          <c:x val="0.15688496920908082"/>
+          <c:y val="0.12616550192558351"/>
+          <c:w val="0.82984497181385708"/>
+          <c:h val="0.67135997760079857"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -798,18 +785,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR" sz="1000">
-                    <a:cs typeface="B Mitra" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
                   </a:rPr>
-                  <a:t>قیمت هر تجهیز تعمیر در مرکز تعمیر </a:t>
+                  <a:t>Price of each repair equipment at the repair center</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1000">
-                  <a:cs typeface="B Mitra" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                  <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.19885376645364994"/>
+              <c:y val="0.89800798406317683"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -924,11 +918,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR" sz="1000">
-                    <a:cs typeface="B Mitra" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
                   </a:rPr>
-                  <a:t>تابع هدف</a:t>
+                  <a:t>Objective function</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
               <a:p>
                 <a:pPr>
@@ -946,8 +943,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0"/>
-              <c:y val="0.36548342235659054"/>
+              <c:x val="8.3819235568571623E-3"/>
+              <c:y val="0.26609573050004298"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1245,10 +1242,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR"/>
-                  <a:t>قیمت هر تجهیز تعمیر در مرکز تعمیر </a:t>
+                  <a:rPr lang="en-US" sz="1050" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Price of each repair equipment at the repair center</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1256,8 +1257,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37282185393691208"/>
-              <c:y val="0.87368075311081672"/>
+              <c:x val="0.24964288561933837"/>
+              <c:y val="0.86199691983285398"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1374,13 +1375,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR" sz="1000">
-                    <a:cs typeface="B Mitra" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
                   </a:rPr>
-                  <a:t>تابع هدف</a:t>
+                  <a:t>Objective function</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1000">
-                  <a:cs typeface="B Mitra" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                <a:endParaRPr lang="en-US" sz="400">
+                  <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -1389,8 +1390,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.8705151308920995E-2"/>
-              <c:y val="0.34093528994476896"/>
+              <c:x val="1.7163113091401009E-2"/>
+              <c:y val="0.17735893147272103"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1688,10 +1689,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR"/>
-                  <a:t>قیمت هر تجهیز تعمیر در مرکز تعمیر </a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Price of each repair equipment at the repair center</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
               <a:p>
                 <a:pPr>
@@ -1705,8 +1710,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.36761598802898005"/>
-              <c:y val="0.8240048515364421"/>
+              <c:x val="0.22362754003674315"/>
+              <c:y val="0.83663192096911454"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1823,13 +1828,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR"/>
-                  <a:t>تابع هدف</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Objective function</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.6393108142856553E-3"/>
+              <c:y val="7.5155301734766117E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2125,10 +2142,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR"/>
-                  <a:t>قیمت هر تجهیز تعمیر در مرکز تعمیر </a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Price of each repair equipment at the repair center</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2136,8 +2157,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.36901165796462687"/>
-              <c:y val="0.85842099468575539"/>
+              <c:x val="0.2729751288334083"/>
+              <c:y val="0.85215069026791612"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2254,13 +2275,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR"/>
-                  <a:t>تابع هدف</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Objective function</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.3281558599522592E-2"/>
+              <c:y val="0.12302573402528819"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2556,10 +2589,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR"/>
-                  <a:t>قیمت هر تجهیز تعمیر در مرکز تعمیر </a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Price of each repair equipment at the repair center</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2567,8 +2604,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37600544328202828"/>
-              <c:y val="0.88508598969074503"/>
+              <c:x val="0.24727291746574148"/>
+              <c:y val="0.87923960940075108"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2685,9 +2722,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR"/>
-                  <a:t>تابع هدف</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Objective function</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2695,8 +2737,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.3488109029212872E-2"/>
-              <c:y val="0.33916013297431929"/>
+              <c:x val="1.4631379522763463E-2"/>
+              <c:y val="0.14622658881197945"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2994,10 +3036,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR"/>
-                  <a:t>قیمت هر تجهیز تعمیر در مرکز تعمیر </a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Price of each repair equipment at the repair center</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3005,8 +3051,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.38381124234470698"/>
-              <c:y val="0.87731260963254876"/>
+              <c:x val="0.28968507852164843"/>
+              <c:y val="0.86029863249947203"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3123,9 +3169,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR"/>
-                  <a:t>تابع هدف</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Objective function</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3133,8 +3184,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.2222222222222223E-2"/>
-              <c:y val="0.41935586176727907"/>
+              <c:x val="1.3917066542909031E-2"/>
+              <c:y val="0.15847564082468904"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3442,10 +3493,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR"/>
-                  <a:t>قیمت هر تجهیز تعمیر در مرکز تعمیر </a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Price of each repair equipment at the repair center</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3453,8 +3508,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37371061207113165"/>
-              <c:y val="0.90448297363744334"/>
+              <c:x val="0.25541155688230982"/>
+              <c:y val="0.89658039499547193"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3571,9 +3626,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fa-IR"/>
-                  <a:t>تابع هدف</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Objective function</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3581,8 +3641,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9290098342613846E-2"/>
-              <c:y val="0.34562260177430076"/>
+              <c:x val="1.3656722293500767E-2"/>
+              <c:y val="0.1613562508035449"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8031,16 +8091,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6351</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>374651</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8538,7 +8598,7 @@
   <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
